--- a/Output/KAPU.xlsx
+++ b/Output/KAPU.xlsx
@@ -5528,7 +5528,11 @@
       <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -8748,7 +8752,11 @@
       <c r="T2" t="n">
         <v>30</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -9686,7 +9694,11 @@
       <c r="T2" t="n">
         <v>30</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -10787,7 +10799,11 @@
       <c r="T2" t="n">
         <v>27</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -13739,7 +13755,11 @@
       <c r="T2" t="n">
         <v>33</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -14256,7 +14276,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -17455,7 +17479,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -19482,7 +19510,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -21667,7 +21699,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -24862,7 +24898,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -29850,7 +29890,11 @@
       <c r="T2" t="n">
         <v>30</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -30934,7 +30978,11 @@
       <c r="T2" t="n">
         <v>25</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -34133,7 +34181,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -37945,7 +37997,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -41162,7 +41218,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -42944,7 +43004,11 @@
       <c r="T2" t="n">
         <v>31</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -43793,7 +43857,11 @@
       <c r="T2" t="n">
         <v>29</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -45565,7 +45633,11 @@
       <c r="T2" t="n">
         <v>32</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -46159,7 +46231,11 @@
       <c r="T2" t="n">
         <v>28</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
